--- a/input.xlsx
+++ b/input.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27421"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47C5FBB5-FA99-4988-92F9-F0D3ECD86080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76BB9489-156B-429F-B08C-C279CC9989D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,21 +31,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>検索ワード</t>
   </si>
   <si>
+    <t xml:space="preserve">文字の区切り方（正規表現）
+デフォルトは文末のピリオドで区切る。ただしU.S.などの略語のピリオドは無視
+</t>
+  </si>
+  <si>
     <t>読み込み先のパス</t>
   </si>
   <si>
-    <t>記入開始行(1=1行目)</t>
+    <t>和訳有無(0 or 1)
+(Google翻訳の状態でエラー発生)</t>
   </si>
   <si>
     <t>抽出前後の文章数</t>
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>(?&lt;!\w\.\w.)(?&lt;![A-Z][a-z]\.)(?&lt;=\.|\?)\s</t>
   </si>
   <si>
     <t>C:\Users\mine\Desktop\pdf_PDF2text\読み込みPDF</t>
@@ -90,7 +99,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -119,17 +128,6 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -175,35 +173,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,103 +588,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="23.5" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="22.25" customWidth="1"/>
+    <col min="1" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="104.25" customHeight="1">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.75">
-      <c r="A2" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4">
-        <v>1</v>
+      <c r="B2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="18.75">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" ht="18.75">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" ht="18.75">
-      <c r="A5" s="5" t="s">
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" ht="18.75">
-      <c r="A6" s="5" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" ht="18.75">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" ht="18.75">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" ht="18.75">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" ht="18.75">
-      <c r="A10" s="3"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="10"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="10"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="10"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="10"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
